--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1910.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A556B9-3542-46AB-8F58-66ECF7B75C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD25C5D-C72D-4FCA-A1F9-64F07FF38ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58050" yWindow="285" windowWidth="28830" windowHeight="23010" xr2:uid="{17BC9D7A-FE0C-4A2A-A471-6A4DA7954069}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{17BC9D7A-FE0C-4A2A-A471-6A4DA7954069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
   <si>
     <t>губ</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -825,13 +834,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF37-2A85-4447-8A5F-FA95ED387276}">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AG146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T56" sqref="T56"/>
+      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -856,9 +865,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +953,17 @@
       <c r="AC1" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1054,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="8">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1127,8 +1158,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1219,8 +1262,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1311,8 +1366,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1403,8 +1470,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1495,8 +1574,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1587,8 +1678,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1679,8 +1782,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1771,8 +1886,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1863,8 +1990,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1955,8 +2094,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2047,8 +2198,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2139,8 +2302,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2231,8 +2406,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2323,8 +2510,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2415,8 +2614,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2718,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2599,8 +2822,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2691,8 +2926,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2783,8 +3030,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2875,8 +3134,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2967,8 +3238,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3059,8 +3342,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3151,8 +3446,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3243,8 +3550,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3335,8 +3654,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3427,8 +3758,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3519,8 +3862,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3611,8 +3966,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3703,8 +4070,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3795,8 +4174,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3887,8 +4278,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3979,8 +4382,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3990,8 +4405,8 @@
       <c r="C35" s="2">
         <v>202910</v>
       </c>
-      <c r="D35" s="2">
-        <v>115173</v>
+      <c r="D35" s="3">
+        <v>145173</v>
       </c>
       <c r="F35" s="4">
         <v>67448</v>
@@ -4071,8 +4486,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4163,8 +4590,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4255,8 +4694,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -4347,8 +4798,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4439,8 +4902,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4531,8 +5006,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4623,8 +5110,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4715,8 +5214,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4807,8 +5318,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4899,8 +5422,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4991,8 +5526,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5002,8 +5549,8 @@
       <c r="C46" s="2">
         <v>119368</v>
       </c>
-      <c r="D46" s="2">
-        <v>82410</v>
+      <c r="D46" s="3">
+        <v>82416</v>
       </c>
       <c r="F46" s="4">
         <v>155171</v>
@@ -5083,8 +5630,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5175,8 +5734,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5267,8 +5838,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5359,8 +5942,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5451,8 +6046,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5543,8 +6150,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5635,8 +6254,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5727,8 +6358,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5819,8 +6462,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5911,8 +6566,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6003,8 +6670,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6095,8 +6774,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6187,8 +6878,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6279,8 +6982,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6371,8 +7086,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6463,8 +7190,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6555,8 +7294,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6647,8 +7398,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6739,8 +7502,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6831,8 +7606,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6923,16 +7710,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>551231</v>
       </c>
-      <c r="C67" s="2">
-        <v>14331</v>
+      <c r="C67" s="3">
+        <v>14336</v>
       </c>
       <c r="D67" s="2">
         <v>10555</v>
@@ -6947,7 +7746,7 @@
         <v>551231</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" ref="I67:I109" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I109" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="4">
@@ -6960,7 +7759,7 @@
         <v>14336</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M109" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M109" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="4">
@@ -6973,7 +7772,7 @@
         <v>10555</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:Q109" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q109" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
@@ -6986,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U109" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U109" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="4">
@@ -6999,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="6">
-        <f t="shared" ref="Y67:Y109" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y109" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="4">
@@ -7012,19 +7811,31 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <f t="shared" ref="AC67:AC109" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC109" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="8">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>2816110</v>
       </c>
-      <c r="C68" s="2">
-        <v>108985</v>
+      <c r="C68" s="3">
+        <v>108989</v>
       </c>
       <c r="D68" s="2">
         <v>73902</v>
@@ -7039,7 +7850,7 @@
         <v>265930</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
@@ -7052,7 +7863,7 @@
         <v>6823</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="4">
@@ -7065,7 +7876,7 @@
         <v>5318</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="4">
@@ -7078,7 +7889,7 @@
         <v>2550180</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="4">
@@ -7091,7 +7902,7 @@
         <v>102166</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="4">
@@ -7104,11 +7915,23 @@
         <v>68584</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -7131,7 +7954,7 @@
         <v>191639</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
@@ -7144,7 +7967,7 @@
         <v>8108</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="4">
@@ -7157,7 +7980,7 @@
         <v>7537</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="4">
@@ -7170,7 +7993,7 @@
         <v>1167526</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="4">
@@ -7183,7 +8006,7 @@
         <v>41717</v>
       </c>
       <c r="Y69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="4">
@@ -7196,11 +8019,23 @@
         <v>31960</v>
       </c>
       <c r="AC69" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -7210,8 +8045,8 @@
       <c r="C70" s="2">
         <v>3915667</v>
       </c>
-      <c r="D70" s="2">
-        <v>2742884</v>
+      <c r="D70" s="3">
+        <v>2742848</v>
       </c>
       <c r="F70" s="4">
         <v>5935173</v>
@@ -7223,7 +8058,7 @@
         <v>11317640</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
@@ -7236,7 +8071,7 @@
         <v>408873</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="4">
@@ -7249,7 +8084,7 @@
         <v>322287</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="4">
@@ -7262,7 +8097,7 @@
         <v>73956011</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="4">
@@ -7275,7 +8110,7 @@
         <v>3506794</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="4">
@@ -7288,11 +8123,23 @@
         <v>2420561</v>
       </c>
       <c r="AC70" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -7315,7 +8162,7 @@
         <v>365830</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
@@ -7328,7 +8175,7 @@
         <v>18796</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="4">
@@ -7341,7 +8188,7 @@
         <v>15520</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="4">
@@ -7354,7 +8201,7 @@
         <v>2868330</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="4">
@@ -7367,7 +8214,7 @@
         <v>154375</v>
       </c>
       <c r="Y71" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="4">
@@ -7380,11 +8227,23 @@
         <v>127733</v>
       </c>
       <c r="AC71" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -7407,7 +8266,7 @@
         <v>18125476</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
@@ -7420,7 +8279,7 @@
         <v>634378</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="4">
@@ -7433,7 +8292,7 @@
         <v>476448</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="4">
@@ -7446,7 +8305,7 @@
         <v>114473851</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="4">
@@ -7459,7 +8318,7 @@
         <v>5046102</v>
       </c>
       <c r="Y72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="4">
@@ -7472,11 +8331,23 @@
         <v>3440164</v>
       </c>
       <c r="AC72" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -7499,7 +8370,7 @@
         <v>83672</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="4">
@@ -7512,7 +8383,7 @@
         <v>1340</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="4">
@@ -7525,7 +8396,7 @@
         <v>1073</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="4">
@@ -7538,7 +8409,7 @@
         <v>686890</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="4">
@@ -7551,7 +8422,7 @@
         <v>15933</v>
       </c>
       <c r="Y73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="4">
@@ -7564,11 +8435,23 @@
         <v>15512</v>
       </c>
       <c r="AC73" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -7591,7 +8474,7 @@
         <v>333173</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="4">
@@ -7604,7 +8487,7 @@
         <v>8937</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="4">
@@ -7617,7 +8500,7 @@
         <v>5729</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="4">
@@ -7630,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="4">
@@ -7643,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="4">
@@ -7656,11 +8539,23 @@
         <v>0</v>
       </c>
       <c r="AC74" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -7683,7 +8578,7 @@
         <v>40567</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="4">
@@ -7696,7 +8591,7 @@
         <v>1088</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="4">
@@ -7709,7 +8604,7 @@
         <v>564</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="4">
@@ -7722,7 +8617,7 @@
         <v>125130</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="4">
@@ -7735,7 +8630,7 @@
         <v>3489</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="4">
@@ -7748,11 +8643,23 @@
         <v>2210</v>
       </c>
       <c r="AC75" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -7775,7 +8682,7 @@
         <v>64585</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="4">
@@ -7788,7 +8695,7 @@
         <v>1371</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="4">
@@ -7801,7 +8708,7 @@
         <v>1319</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="4">
@@ -7814,7 +8721,7 @@
         <v>617004</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="4">
@@ -7827,7 +8734,7 @@
         <v>13455</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="4">
@@ -7840,11 +8747,23 @@
         <v>12756</v>
       </c>
       <c r="AC76" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -7867,7 +8786,7 @@
         <v>142716</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="4">
@@ -7880,7 +8799,7 @@
         <v>2304</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="4">
@@ -7893,7 +8812,7 @@
         <v>1666</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="4">
@@ -7906,7 +8825,7 @@
         <v>985233</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="4">
@@ -7919,7 +8838,7 @@
         <v>22725</v>
       </c>
       <c r="Y77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="4">
@@ -7932,11 +8851,23 @@
         <v>14286</v>
       </c>
       <c r="AC77" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -7959,7 +8890,7 @@
         <v>41995</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="4">
@@ -7972,7 +8903,7 @@
         <v>1466</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="4">
@@ -7985,7 +8916,7 @@
         <v>1375</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="4">
@@ -7998,7 +8929,7 @@
         <v>304082</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="4">
@@ -8011,7 +8942,7 @@
         <v>14262</v>
       </c>
       <c r="Y78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="4">
@@ -8024,11 +8955,23 @@
         <v>7749</v>
       </c>
       <c r="AC78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -8051,7 +8994,7 @@
         <v>218365</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="4">
@@ -8064,7 +9007,7 @@
         <v>9802</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="4">
@@ -8077,7 +9020,7 @@
         <v>7359</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="4">
@@ -8090,7 +9033,7 @@
         <v>2479451</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="4">
@@ -8103,7 +9046,7 @@
         <v>137902</v>
       </c>
       <c r="Y79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="4">
@@ -8116,11 +9059,23 @@
         <v>100120</v>
       </c>
       <c r="AC79" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -8143,7 +9098,7 @@
         <v>105280</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="4">
@@ -8156,7 +9111,7 @@
         <v>2250</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="4">
@@ -8169,7 +9124,7 @@
         <v>1355</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="4">
@@ -8182,7 +9137,7 @@
         <v>998049</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="4">
@@ -8195,7 +9150,7 @@
         <v>26794</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="4">
@@ -8208,11 +9163,23 @@
         <v>17002</v>
       </c>
       <c r="AC80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -8235,7 +9202,7 @@
         <v>73728</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="4">
@@ -8248,7 +9215,7 @@
         <v>2746</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="4">
@@ -8261,7 +9228,7 @@
         <v>1628</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="4">
@@ -8274,7 +9241,7 @@
         <v>1125220</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="4">
@@ -8287,7 +9254,7 @@
         <v>65282</v>
       </c>
       <c r="Y81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="4">
@@ -8300,11 +9267,23 @@
         <v>56490</v>
       </c>
       <c r="AC81" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -8327,7 +9306,7 @@
         <v>188467</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="4">
@@ -8340,7 +9319,7 @@
         <v>9249</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="4">
@@ -8353,7 +9332,7 @@
         <v>5171</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="4">
@@ -8366,7 +9345,7 @@
         <v>963907</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="4">
@@ -8379,7 +9358,7 @@
         <v>40066</v>
       </c>
       <c r="Y82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="4">
@@ -8392,11 +9371,23 @@
         <v>26953</v>
       </c>
       <c r="AC82" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -8419,7 +9410,7 @@
         <v>382415</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="4">
@@ -8432,7 +9423,7 @@
         <v>8516</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="4">
@@ -8445,7 +9436,7 @@
         <v>5572</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="4">
@@ -8458,7 +9449,7 @@
         <v>894875</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="4">
@@ -8471,7 +9462,7 @@
         <v>36590</v>
       </c>
       <c r="Y83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="4">
@@ -8484,11 +9475,23 @@
         <v>20308</v>
       </c>
       <c r="AC83" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -8511,7 +9514,7 @@
         <v>69899</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="4">
@@ -8524,7 +9527,7 @@
         <v>2074</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="4">
@@ -8537,7 +9540,7 @@
         <v>1501</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="4">
@@ -8550,7 +9553,7 @@
         <v>64618</v>
       </c>
       <c r="U84" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="4">
@@ -8563,7 +9566,7 @@
         <v>2830</v>
       </c>
       <c r="Y84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="4">
@@ -8576,11 +9579,23 @@
         <v>1199</v>
       </c>
       <c r="AC84" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -8603,7 +9618,7 @@
         <v>90763</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
@@ -8616,7 +9631,7 @@
         <v>3534</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="4">
@@ -8629,7 +9644,7 @@
         <v>2929</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="4">
@@ -8642,7 +9657,7 @@
         <v>803297</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="4">
@@ -8655,7 +9670,7 @@
         <v>30102</v>
       </c>
       <c r="Y85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="4">
@@ -8668,11 +9683,23 @@
         <v>19422</v>
       </c>
       <c r="AC85" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -8695,7 +9722,7 @@
         <v>1835625</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="4">
@@ -8708,7 +9735,7 @@
         <v>54677</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="4">
@@ -8721,7 +9748,7 @@
         <v>37241</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="4">
@@ -8734,7 +9761,7 @@
         <v>10047756</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="4">
@@ -8747,7 +9774,7 @@
         <v>409430</v>
       </c>
       <c r="Y86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="4">
@@ -8760,11 +9787,23 @@
         <v>294007</v>
       </c>
       <c r="AC86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -8787,7 +9826,7 @@
         <v>68714</v>
       </c>
       <c r="I87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="4">
@@ -8800,7 +9839,7 @@
         <v>3017</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="4">
@@ -8813,7 +9852,7 @@
         <v>2216</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="4">
@@ -8826,7 +9865,7 @@
         <v>129797</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="4">
@@ -8839,7 +9878,7 @@
         <v>7713</v>
       </c>
       <c r="Y87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="4">
@@ -8852,11 +9891,23 @@
         <v>4531</v>
       </c>
       <c r="AC87" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -8879,7 +9930,7 @@
         <v>123571</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="4">
@@ -8892,7 +9943,7 @@
         <v>5495</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N88" s="4">
@@ -8905,7 +9956,7 @@
         <v>4080</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R88" s="4">
@@ -8918,7 +9969,7 @@
         <v>842838</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V88" s="4">
@@ -8931,7 +9982,7 @@
         <v>50853</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z88" s="4">
@@ -8944,11 +9995,23 @@
         <v>31626</v>
       </c>
       <c r="AC88" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -8971,7 +10034,7 @@
         <v>139555</v>
       </c>
       <c r="I89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="4">
@@ -8984,7 +10047,7 @@
         <v>4168</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="4">
@@ -8997,7 +10060,7 @@
         <v>2021</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R89" s="4">
@@ -9010,7 +10073,7 @@
         <v>751047</v>
       </c>
       <c r="U89" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V89" s="4">
@@ -9023,7 +10086,7 @@
         <v>30041</v>
       </c>
       <c r="Y89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z89" s="4">
@@ -9036,11 +10099,23 @@
         <v>20292</v>
       </c>
       <c r="AC89" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -9063,7 +10138,7 @@
         <v>64658</v>
       </c>
       <c r="I90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="4">
@@ -9076,7 +10151,7 @@
         <v>3455</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N90" s="4">
@@ -9089,7 +10164,7 @@
         <v>3195</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R90" s="4">
@@ -9102,7 +10177,7 @@
         <v>566189</v>
       </c>
       <c r="U90" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="4">
@@ -9115,7 +10190,7 @@
         <v>24767</v>
       </c>
       <c r="Y90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z90" s="4">
@@ -9128,11 +10203,23 @@
         <v>17389</v>
       </c>
       <c r="AC90" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -9155,7 +10242,7 @@
         <v>2000</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="4">
@@ -9168,7 +10255,7 @@
         <v>36</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="4">
@@ -9181,7 +10268,7 @@
         <v>34</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R91" s="4">
@@ -9194,7 +10281,7 @@
         <v>33800</v>
       </c>
       <c r="U91" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V91" s="4">
@@ -9207,7 +10294,7 @@
         <v>634</v>
       </c>
       <c r="Y91" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z91" s="4">
@@ -9220,11 +10307,23 @@
         <v>306</v>
       </c>
       <c r="AC91" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -9247,7 +10346,7 @@
         <v>178818</v>
       </c>
       <c r="I92" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="4">
@@ -9260,7 +10359,7 @@
         <v>3034</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="4">
@@ -9273,7 +10372,7 @@
         <v>2244</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R92" s="4">
@@ -9286,7 +10385,7 @@
         <v>327174</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V92" s="4">
@@ -9299,7 +10398,7 @@
         <v>12904</v>
       </c>
       <c r="Y92" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z92" s="4">
@@ -9312,11 +10411,23 @@
         <v>5264</v>
       </c>
       <c r="AC92" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -9339,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="4">
@@ -9352,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="4">
@@ -9365,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R93" s="4">
@@ -9378,7 +10489,7 @@
         <v>7898</v>
       </c>
       <c r="U93" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V93" s="4">
@@ -9391,7 +10502,7 @@
         <v>203</v>
       </c>
       <c r="Y93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z93" s="4">
@@ -9404,11 +10515,23 @@
         <v>117</v>
       </c>
       <c r="AC93" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -9431,7 +10554,7 @@
         <v>131012</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="4">
@@ -9444,7 +10567,7 @@
         <v>4940</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="4">
@@ -9457,7 +10580,7 @@
         <v>4092</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R94" s="4">
@@ -9470,7 +10593,7 @@
         <v>1844227</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V94" s="4">
@@ -9483,7 +10606,7 @@
         <v>110974</v>
       </c>
       <c r="Y94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z94" s="9">
@@ -9496,11 +10619,23 @@
         <v>72158</v>
       </c>
       <c r="AC94" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -9523,7 +10658,7 @@
         <v>283102</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="4">
@@ -9536,7 +10671,7 @@
         <v>14373</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N95" s="4">
@@ -9549,7 +10684,7 @@
         <v>11713</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R95" s="4">
@@ -9562,7 +10697,7 @@
         <v>3584521</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V95" s="4">
@@ -9575,7 +10710,7 @@
         <v>195509</v>
       </c>
       <c r="Y95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z95" s="4">
@@ -9588,11 +10723,23 @@
         <v>108156</v>
       </c>
       <c r="AC95" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -9615,7 +10762,7 @@
         <v>11104</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="4">
@@ -9628,7 +10775,7 @@
         <v>752</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N96" s="4">
@@ -9641,7 +10788,7 @@
         <v>592</v>
       </c>
       <c r="Q96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R96" s="4">
@@ -9654,7 +10801,7 @@
         <v>258136</v>
       </c>
       <c r="U96" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V96" s="4">
@@ -9667,7 +10814,7 @@
         <v>10189</v>
       </c>
       <c r="Y96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z96" s="4">
@@ -9680,11 +10827,23 @@
         <v>7672</v>
       </c>
       <c r="AC96" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -9707,7 +10866,7 @@
         <v>1002534</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="4">
@@ -9720,7 +10879,7 @@
         <v>39270</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N97" s="4">
@@ -9733,7 +10892,7 @@
         <v>30187</v>
       </c>
       <c r="Q97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R97" s="4">
@@ -9746,7 +10905,7 @@
         <v>8345627</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V97" s="4">
@@ -9759,7 +10918,7 @@
         <v>443787</v>
       </c>
       <c r="Y97" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z97" s="4">
@@ -9772,11 +10931,23 @@
         <v>267511</v>
       </c>
       <c r="AC97" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -9784,7 +10955,7 @@
         <v>1443721</v>
       </c>
       <c r="C98" s="2">
-        <v>61633</v>
+        <v>61638</v>
       </c>
       <c r="D98" s="2">
         <v>39376</v>
@@ -9799,7 +10970,7 @@
         <v>192702</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98" s="4">
@@ -9812,7 +10983,7 @@
         <v>9096</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N98" s="4">
@@ -9825,7 +10996,7 @@
         <v>6797</v>
       </c>
       <c r="Q98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R98" s="4">
@@ -9838,7 +11009,7 @@
         <v>1251019</v>
       </c>
       <c r="U98" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V98" s="4">
@@ -9851,7 +11022,7 @@
         <v>52542</v>
       </c>
       <c r="Y98" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z98" s="4">
@@ -9864,11 +11035,23 @@
         <v>32579</v>
       </c>
       <c r="AC98" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -9891,7 +11074,7 @@
         <v>59900</v>
       </c>
       <c r="I99" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99" s="4">
@@ -9904,7 +11087,7 @@
         <v>2504</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N99" s="4">
@@ -9917,7 +11100,7 @@
         <v>1591</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R99" s="4">
@@ -9930,7 +11113,7 @@
         <v>380900</v>
       </c>
       <c r="U99" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V99" s="4">
@@ -9943,7 +11126,7 @@
         <v>11661</v>
       </c>
       <c r="Y99" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z99" s="4">
@@ -9956,11 +11139,23 @@
         <v>8055</v>
       </c>
       <c r="AC99" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -9983,7 +11178,7 @@
         <v>186600</v>
       </c>
       <c r="I100" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="4" t="s">
@@ -9996,7 +11191,7 @@
         <v>85</v>
       </c>
       <c r="M100" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N100" s="4" t="s">
@@ -10009,7 +11204,7 @@
         <v>85</v>
       </c>
       <c r="Q100" s="6" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R100" s="4">
@@ -10022,7 +11217,7 @@
         <v>983300</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="4" t="s">
@@ -10035,7 +11230,7 @@
         <v>85</v>
       </c>
       <c r="Y100" s="6" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z100" s="4" t="s">
@@ -10048,11 +11243,23 @@
         <v>85</v>
       </c>
       <c r="AC100" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE100" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG100" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -10075,7 +11282,7 @@
         <v>60292</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="4">
@@ -10088,7 +11295,7 @@
         <v>4292</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="4">
@@ -10101,7 +11308,7 @@
         <v>3285</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="4">
@@ -10114,7 +11321,7 @@
         <v>761167</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="4">
@@ -10127,7 +11334,7 @@
         <v>19797</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="4">
@@ -10140,11 +11347,23 @@
         <v>11740</v>
       </c>
       <c r="AC101" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -10167,7 +11386,7 @@
         <v>103688</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
@@ -10180,7 +11399,7 @@
         <v>4225</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="4">
@@ -10193,7 +11412,7 @@
         <v>2619</v>
       </c>
       <c r="Q102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="4">
@@ -10206,7 +11425,7 @@
         <v>1079211</v>
       </c>
       <c r="U102" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="4">
@@ -10219,7 +11438,7 @@
         <v>37254</v>
       </c>
       <c r="Y102" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="4">
@@ -10232,11 +11451,23 @@
         <v>25448</v>
       </c>
       <c r="AC102" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -10259,7 +11490,7 @@
         <v>264327</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="4">
@@ -10272,7 +11503,7 @@
         <v>8234</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="4">
@@ -10285,7 +11516,7 @@
         <v>4307</v>
       </c>
       <c r="Q103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="4">
@@ -10298,7 +11529,7 @@
         <v>1530696</v>
       </c>
       <c r="U103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="4">
@@ -10311,7 +11542,7 @@
         <v>48362</v>
       </c>
       <c r="Y103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="4">
@@ -10324,11 +11555,23 @@
         <v>28720</v>
       </c>
       <c r="AC103" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -10351,7 +11594,7 @@
         <v>38841</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="4">
@@ -10364,7 +11607,7 @@
         <v>2210</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N104" s="4">
@@ -10377,7 +11620,7 @@
         <v>1527</v>
       </c>
       <c r="Q104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R104" s="4">
@@ -10390,7 +11633,7 @@
         <v>674130</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="4">
@@ -10403,7 +11646,7 @@
         <v>27172</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="4">
@@ -10416,11 +11659,23 @@
         <v>19063</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -10443,7 +11698,7 @@
         <v>61959</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="4">
@@ -10456,7 +11711,7 @@
         <v>2785</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="4">
@@ -10469,7 +11724,7 @@
         <v>1699</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R105" s="4">
@@ -10482,7 +11737,7 @@
         <v>715484</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V105" s="4">
@@ -10495,7 +11750,7 @@
         <v>19668</v>
       </c>
       <c r="Y105" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z105" s="4">
@@ -10508,11 +11763,23 @@
         <v>13524</v>
       </c>
       <c r="AC105" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -10535,7 +11802,7 @@
         <v>384582</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106" s="4">
@@ -10548,7 +11815,7 @@
         <v>11460</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N106" s="4">
@@ -10561,7 +11828,7 @@
         <v>9262</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R106" s="4">
@@ -10574,7 +11841,7 @@
         <v>1630480</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V106" s="4">
@@ -10587,7 +11854,7 @@
         <v>61699</v>
       </c>
       <c r="Y106" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z106" s="4">
@@ -10600,11 +11867,23 @@
         <v>34310</v>
       </c>
       <c r="AC106" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -10627,7 +11906,7 @@
         <v>1352891</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J107" s="4">
@@ -10640,7 +11919,7 @@
         <v>44806</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N107" s="4">
@@ -10653,7 +11932,7 @@
         <v>31087</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R107" s="4">
@@ -10666,7 +11945,7 @@
         <v>9006387</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V107" s="4">
@@ -10679,7 +11958,7 @@
         <v>278155</v>
       </c>
       <c r="Y107" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z107" s="4">
@@ -10692,11 +11971,23 @@
         <v>173439</v>
       </c>
       <c r="AC107" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -10719,7 +12010,7 @@
         <v>4191050</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J108" s="4">
@@ -10732,7 +12023,7 @@
         <v>138753</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N108" s="4">
@@ -10745,7 +12036,7 @@
         <v>98515</v>
       </c>
       <c r="Q108" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R108" s="4">
@@ -10758,7 +12049,7 @@
         <v>27399770</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V108" s="4">
@@ -10771,7 +12062,7 @@
         <v>1131372</v>
       </c>
       <c r="Y108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z108" s="4">
@@ -10784,11 +12075,23 @@
         <v>734957</v>
       </c>
       <c r="AC108" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -10811,7 +12114,7 @@
         <v>22316526</v>
       </c>
       <c r="I109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J109" s="4">
@@ -10824,7 +12127,7 @@
         <v>773131</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N109" s="4">
@@ -10837,7 +12140,7 @@
         <v>574963</v>
       </c>
       <c r="Q109" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R109" s="4">
@@ -10850,7 +12153,7 @@
         <v>141873621</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V109" s="4">
@@ -10863,7 +12166,7 @@
         <v>6177474</v>
       </c>
       <c r="Y109" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z109" s="4">
@@ -10876,11 +12179,23 @@
         <v>4175121</v>
       </c>
       <c r="AC109" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -10908,8 +12223,11 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="6"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+      <c r="AG110" s="8"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -10937,8 +12255,11 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="6"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE111" s="8"/>
+      <c r="AF111" s="8"/>
+      <c r="AG111" s="8"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -10966,8 +12287,11 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="6"/>
-    </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -10995,8 +12319,11 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="6"/>
-    </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE113" s="8"/>
+      <c r="AF113" s="8"/>
+      <c r="AG113" s="8"/>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -11024,8 +12351,11 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="6"/>
-    </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -11053,8 +12383,11 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="6"/>
-    </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -11082,8 +12415,11 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="6"/>
-    </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -11111,8 +12447,11 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="6"/>
-    </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE117" s="8"/>
+      <c r="AF117" s="8"/>
+      <c r="AG117" s="8"/>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -11140,8 +12479,11 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="6"/>
-    </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE118" s="8"/>
+      <c r="AF118" s="8"/>
+      <c r="AG118" s="8"/>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -11169,8 +12511,11 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="8"/>
-    </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE119" s="8"/>
+      <c r="AF119" s="8"/>
+      <c r="AG119" s="8"/>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -11198,8 +12543,11 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="8"/>
-    </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE120" s="8"/>
+      <c r="AF120" s="8"/>
+      <c r="AG120" s="8"/>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -11227,8 +12575,11 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="8"/>
-    </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -11256,8 +12607,11 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="8"/>
-    </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -11286,7 +12640,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -11315,7 +12669,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -11344,7 +12698,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -11373,7 +12727,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -11402,7 +12756,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
